--- a/我的创作/财务/股票/SEAP交易系统/交易分析/2022年第四季度/行业及其领头羊分析/磷肥及磷化工.xlsx
+++ b/我的创作/财务/股票/SEAP交易系统/交易分析/2022年第四季度/行业及其领头羊分析/磷肥及磷化工.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>股票代码</t>
   </si>
@@ -99,6 +99,9 @@
     <t>基础化工-化学制品-磷肥及磷化工</t>
   </si>
   <si>
+    <t>湖北宜化为领头羊，川恒股份为次级领头羊</t>
+  </si>
+  <si>
     <t>002895.SZ</t>
   </si>
   <si>
@@ -133,14 +136,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -858,41 +862,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,16 +914,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,19 +932,19 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -949,34 +956,34 @@
     <xf numFmtId="10" fontId="2" fillId="5" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1306,11 +1313,11 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
@@ -1321,289 +1328,298 @@
     <col min="6" max="6" width="11.0089285714286" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.0625" customWidth="1"/>
     <col min="9" max="11" width="9.14285714285714" style="1"/>
+    <col min="14" max="14" width="9.14285714285714" style="2"/>
     <col min="15" max="15" width="33.3303571428571" customWidth="1"/>
     <col min="16" max="16" width="16.2142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="41" spans="1:16">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>537.116652335913</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>10.85721564</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>16.3695</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="34">
+        <v>44674</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>24.8289623717218</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>50.22790475</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>13.4014</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="14">
         <v>29.35</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="18">
+      <c r="H4" s="13"/>
+      <c r="I4" s="19">
         <v>26.3</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="19">
         <v>19.7</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="20">
         <v>51.79</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="22">
         <f>(I4-J4)/J4</f>
         <v>0.33502538071066</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="24">
         <f>(K4-J4)/K4</f>
         <v>0.619617686812126</v>
       </c>
-      <c r="N4" s="34"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
+      <c r="N4" s="35">
+        <v>4</v>
+      </c>
+      <c r="O4" s="36"/>
+      <c r="P4" s="37"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>64.2857142857143</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>23.06043231</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>7.1844</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="37"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>1988.78378378378</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>19.3505908</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>6.985</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>19.1489361702128</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>16.11880362</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>18.8758</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="36"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="37"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>55300</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>54.49102669</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>12.647</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="16">
         <v>10.83</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="24">
+      <c r="H8" s="16"/>
+      <c r="I8" s="25">
         <v>18.92</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="25">
         <v>16.34</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="25">
         <v>35</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="24">
         <f>(I8-J8)/J8</f>
         <v>0.157894736842105</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="22">
         <f>(K8-J8)/K8</f>
         <v>0.533142857142857</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="39"/>
+      <c r="N8" s="35">
+        <v>3</v>
+      </c>
+      <c r="O8" s="39"/>
+      <c r="P8" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/我的创作/财务/股票/SEAP交易系统/交易分析/2022年第四季度/行业及其领头羊分析/磷肥及磷化工.xlsx
+++ b/我的创作/财务/股票/SEAP交易系统/交易分析/2022年第四季度/行业及其领头羊分析/磷肥及磷化工.xlsx
@@ -1313,11 +1313,11 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>

--- a/我的创作/财务/股票/SEAP交易系统/交易分析/2022年第四季度/行业及其领头羊分析/磷肥及磷化工.xlsx
+++ b/我的创作/财务/股票/SEAP交易系统/交易分析/2022年第四季度/行业及其领头羊分析/磷肥及磷化工.xlsx
@@ -1317,7 +1317,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="7"/>
